--- a/biology/Microbiologie/Gélose_MacConkey/Gélose_MacConkey.xlsx
+++ b/biology/Microbiologie/Gélose_MacConkey/Gélose_MacConkey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_MacConkey</t>
+          <t>Gélose_MacConkey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gélose MacConkey est un milieu de culture sélectif et différentiel employé en microbiologie pour l'isolement et l'identification des bacilles Gram négatifs (BGN). Ce milieu comporte un indicateur coloré qui détecte la consommation du lactose. Développé dans les années 1900 par A.T. MacConkey pour faciliter l'identification de Escherichia coli dans les eaux, les sols et les aliments[1],[2], il est très utilisé pour isoler les BGN dans toutes sortes de prélèvements polymicrobiens.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gélose MacConkey est un milieu de culture sélectif et différentiel employé en microbiologie pour l'isolement et l'identification des bacilles Gram négatifs (BGN). Ce milieu comporte un indicateur coloré qui détecte la consommation du lactose. Développé dans les années 1900 par A.T. MacConkey pour faciliter l'identification de Escherichia coli dans les eaux, les sols et les aliments il est très utilisé pour isoler les BGN dans toutes sortes de prélèvements polymicrobiens.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_MacConkey</t>
+          <t>Gélose_MacConkey</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La base nutritive se compose de lactose et d'un mélange de trois peptones : peptone pancréatique de gélatine, de caséine et peptone peptique de viande.
 La sélectivité du milieu provient principalement de la présence de deux inhibiteurs, les sels biliaires et le violet de gentiane, qui s'opposent à la croissance des bactéries Gram positives. Les nutriments sont insuffisants pour permettre la croissance des cocci Gram négatifs (Neisseria surtout).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_MacConkey</t>
+          <t>Gélose_MacConkey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les colonies qui présentent le caractère lactose (colonies « lactose + ») sont colorées en rose à rouge et rougissent le milieu environnant. Elles peuvent être entourées d'un halo opaque provoqué par la précipitation des sels biliaires en milieu acide.
 Les autres colonies sont incolores et ne modifient pas l'aspect du milieu en périphérie.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_MacConkey</t>
+          <t>Gélose_MacConkey</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour 1000 mL de milieu[3],[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour 1000 mL de milieu, :
 peptone pancréatique de gélatine : 17 g
 peptone pancréatique de caséine : 1,5 g
 peptone peptique de viande : 1,5 g
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_MacConkey</t>
+          <t>Gélose_MacConkey</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucun ingrédient n'étant thermosensible, il suffit de les dissoudre à chaud dans le volume correspondant d'eau distillée et de stériliser à l'autoclave (15 min à 121°C). Le mélange est ensuite réparti dans des contenants stériles.
 </t>
